--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2022/79_Yalova_2022.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2022/79_Yalova_2022.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\İllere Göre Tahsilat Tahakkuk 2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{893A36DB-3F4C-49F1-8E32-8FB8C5977BE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EFC722F2-8130-474C-9183-9C4E95E963B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8544" yWindow="6144" windowWidth="6528" windowHeight="5280" tabRatio="648" xr2:uid="{A183B4BE-BEC5-424D-8726-23A518210243}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="648" xr2:uid="{635F62CB-BE63-4994-A926-3FC51D87E7B1}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK " sheetId="124" r:id="rId1"/>
@@ -966,14 +966,14 @@
   <cellStyles count="10">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{62C8A7CA-3B22-4BDF-B7EB-2392FFCC977A}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{C0BAB448-8458-4DE2-A779-259F859CDEA6}"/>
-    <cellStyle name="Normal 2 3" xfId="4" xr:uid="{77D1C11F-06E2-4115-BB2A-2D4DCEC91800}"/>
-    <cellStyle name="Normal 3" xfId="5" xr:uid="{0D1CADF9-44F2-422A-98BF-4ECEB48455C8}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{2BB65F20-3FFF-4359-831E-0309F6443725}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{6464A715-44DB-4DBB-B6BC-A763C816919C}"/>
-    <cellStyle name="Not 2" xfId="8" xr:uid="{AF4C2098-6125-45CD-A250-9EDEBB50E4BC}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{92C5A45A-CBB6-4468-9044-B186FB003CD8}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{16CE71AF-D830-4FA1-AD8A-0DF019B66E60}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{FE6AE3A9-C7A1-46BC-85A5-EE2586EEE515}"/>
+    <cellStyle name="Normal 2 3" xfId="4" xr:uid="{24F54742-50EC-4ABE-B217-A5171D91C67D}"/>
+    <cellStyle name="Normal 3" xfId="5" xr:uid="{978DC565-53E7-4D4C-8820-7EB9580CB618}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{DB5C118F-E8F5-48A3-996E-CA44912F8661}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{00478EB5-1AA7-4163-BC54-5E98A8325F96}"/>
+    <cellStyle name="Not 2" xfId="8" xr:uid="{F92667F6-0FD4-47A7-AD20-232081888258}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{5A6FA1C3-C74B-4DB2-84C5-37BC0575AB1F}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1343,7 +1343,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F3FA72D-D8BE-45F4-8257-4FD76A9C4791}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B285EC2-BA6C-450F-A4E7-4D997002B490}">
   <dimension ref="B2:F106"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2641,17 +2641,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7E4482C6-439E-41C6-837C-BDF0909E4CFB}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C0B1CDC8-ABC3-4C21-8F1C-6E719656153D}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{D22FB1A0-DDCC-4A28-955B-0216123902CF}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B4D05BC1-AB5D-45A1-90EC-E50E34F9C1B1}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6260C640-0B8F-4411-8F2D-DF100937E1B6}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{2EF808C6-FCD3-484E-826B-06D71F37DE81}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9F76241F-8714-497D-9F0C-241C6D8783B7}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1F4E858A-B436-4641-B1DE-17AE2A37A6CC}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{5C21390E-7044-4BD8-98BC-23B5F0386206}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{11FAD217-4F57-4E82-96DD-C8FC18732CEC}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8BBAE70E-2560-4DDD-8C7A-C84FC83357E1}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1731E0B7-12C7-41B6-B498-6E2380C4B6A5}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B612018F-84C5-4002-BAD1-B59970ADC8EE}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{174FBB05-739E-44DB-B6C8-20A5D54D455C}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F3EEDFD9-4FF4-4C87-AD25-B5E3471C28C8}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{26086A65-8A35-4923-81FA-EE195BC89BF5}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{CBE3D414-8798-4763-94CE-89438DEDDB81}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D4DAE3F0-CF37-4854-8D8E-9FF706E9D318}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2745D352-C113-413A-B943-1FAE17DE7880}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{3FC34868-5254-42CA-ADBC-CDA7F28360A9}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{4B4FA25D-49AE-4301-897B-4A94EC44CAB7}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{72E34A0A-0739-43F4-B477-F5EE21D0B2C2}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2664,7 +2664,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73282146-3B7E-46A2-9E63-283EB15ABAD2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7BBD2DB-342B-4388-9921-16B447E66304}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3917,17 +3917,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7F6E40B3-CA8F-4CCC-BB55-3299AA768F8B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5328FD89-5F4F-42C3-8AD0-45A37A0FBC70}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{CF4CF62D-886D-4E23-8996-DCABB6647E85}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{1D81956F-992A-4D85-A28E-9281AA929D10}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1B503B74-3259-442E-8C25-1BF739C354AD}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{B3157365-C33E-4645-A75A-62B5FD993F13}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E3D472F4-8210-444A-9D7B-F5C86829966F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{014418B7-E5F2-43A0-96C5-F2D6827B597B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{D5143C99-71DF-4B1E-81B1-09C86A5F9568}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{7EAA1519-5E7A-47BF-8BDA-96425DF178E0}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7CA1FA06-F81E-4E64-BE78-670B375CDC2C}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2BBE5E26-9924-4C41-AB41-E51CF5970B79}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{37FF82EA-78D0-4F6A-977B-AA7617D864B2}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{7AC3E4D7-0792-417E-997F-8E2088E44D5E}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{80B413CF-583E-42AA-ADC6-3F1876567C71}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{CA21C6C4-33D8-45BA-962F-1D984E65E36C}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{0D021B87-E029-4208-AE21-3BE05535F959}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8B8C9E63-8F33-4B8D-8C37-D1759CBD034B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A8F58A68-96C5-4A9B-AF3F-D410B405D368}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{56263D03-11C7-459C-ACB0-FBF78F769AC4}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{F1C31D98-95E8-4701-915A-306A43557C7F}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{98033590-99A5-4521-B768-EEE0198F5F41}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3940,7 +3940,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9E2E974-99E1-4081-8437-C781EC50CC10}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7B2A7A9-3EFC-4B29-922E-A7B18E008BF0}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -5179,17 +5179,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{89E0D360-0B61-49BB-92BF-7B0396F033BA}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{20E49EF8-25FF-4E90-A5CE-ABFFFC4DB6D7}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{766A7BB2-5CDD-4B9A-9CDF-A917875C2F84}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{2C862B59-7A61-4A7F-993C-D7610A7F5C5D}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C30E373C-A0F5-46EB-89A5-CE1FA8E40DCB}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{1180B494-1F94-4400-AB71-6FAE3D154BBE}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0EEFD055-9D39-45E6-92A4-336EE85AB5AE}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5A2C50B0-0B40-4138-B7F4-6C7780C67BD0}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{48E25197-9E7C-4279-A56B-334C41C55FCB}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{C3DE063B-F6AE-479D-82A3-C3FC9A34345C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5881FC11-56C8-4CE0-8A32-DCAB55A7FA77}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1F090C70-5EDF-4C66-8C7B-AF6600C5F223}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DEEDB3F3-A60C-4B00-AA55-C3C815F94744}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{8B0FE18B-DAD3-4A4A-8547-8C6C9EA62C41}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{4B8CABCA-87C9-4C82-A087-D4701EF8455B}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{917E9E6B-FF0C-4830-88E7-09657C7C9DD1}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C3AF32E8-B95B-4730-9492-437999CA8437}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4F60E08C-5902-4D9A-A811-F4DB8A274E4E}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{37A22CC3-2B4A-431A-A95B-32F6ADF8E9B4}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{7E9DD991-A3D7-4E42-AD18-A1C5131BF6B4}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{A815AA48-29C1-4EA7-A9DC-EC493A393979}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C0FFFB6E-0D0C-4455-B204-31A4CFFC0F53}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5202,7 +5202,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DD5F9AE-AABA-4F2C-BE21-9974A24297FB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F6FC4ED-B58C-4C71-A0F1-46DEAF14904E}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -6427,17 +6427,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4EEFF4C6-C908-47C4-AA87-5C11F13F6892}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{02DBA856-AABE-450D-A409-C0F5E023D03E}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{C82F3CB2-3D93-492C-A9E7-355622BB37D3}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{66824815-958A-4EAA-BCC1-9305940EDD03}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E19856DB-2DC0-4505-9839-18367C2759AA}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F2279AAB-516E-430E-91EE-AF71D0D154A0}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{44F05B57-99D8-4BF8-8080-7F89EC2B2C48}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1DA02EFE-84C3-4797-90D3-B07A61CFDDBB}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{08841F38-4B09-471F-8210-7B8C9AB8BFA6}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{23E7A8C1-7A48-4283-8B4B-61860347D3E2}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F6E729DA-C7DE-4ABD-8AFB-06CC31752492}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{56905A90-F7BE-4DFF-B363-55B4F5D087C4}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{96671802-FBF0-4252-B19E-F837170BEC41}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{68E20A99-BC97-4AC3-8952-385E20659FE1}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{8A5D00AD-6DD9-48CC-B82C-3E3A51739D4D}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{01ED3379-D935-49BB-9CCA-E2C63C10DEA3}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E2303250-6C4C-4AB1-8568-41CB34B767A7}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B4E15478-56BD-4E88-99E1-94FAE5DB7351}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8CC02D06-5FE0-4373-B791-C21CD925032A}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{8005416C-7D2B-484B-9BA1-29F8BED5B0BE}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{B28DD509-49C4-4892-8FCF-EFE358BC1325}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5492A705-2A76-4909-9AEE-CE857044368D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6450,7 +6450,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{349F77D9-A44C-4666-8717-57A4791FB657}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B73DC193-1281-4ACB-95B5-FF14F31A1AC6}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A43" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7711,17 +7711,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9F6B3DBD-8B01-4F5D-9FBD-5B926B820908}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E5F93583-4856-440A-9820-84DBD19B30E5}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{125BF441-6606-4C7D-A018-D469DA76354F}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{2E98B2FB-3342-4B12-8FAE-DFD971FAD5F6}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{89EB220D-120C-4656-979E-D0A7C89DD9F6}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{862AF141-EDD0-4483-8A04-6B0BDF0D0C72}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BC4248EF-8901-4C57-A49E-85E84B798B78}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3A659100-2895-4B88-8A6D-31FACAA52EE4}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{F0FF452D-6CFC-4AD2-AA72-737375CD48B5}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{266D31CC-EA1C-4978-BE32-4D6E68BA12A8}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{566662ED-7975-4F9F-90EA-038F1582DEF2}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1160106F-1D28-4060-A1E2-F780A0243FFC}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{876FCF76-0311-41F0-9875-2D8BB9CD1E5E}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{36899AC8-EEA0-4A65-BEA2-B070181B073E}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{9195F294-674B-4652-9C04-1788D25BF3EA}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{62496524-C54F-4861-8AE7-5CB1AC5936D3}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{98E4F2EB-8884-42C9-AF5A-2B6F4B0577B1}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C5579B0B-B6DC-49F1-9A51-90E0321F6316}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C1916326-4A23-4349-97AE-42B07B4E5DD7}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{0B65DB40-7717-4122-9277-C7C3E613CF37}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{6718CEF7-8E24-4CFF-A643-BD50C6C94584}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{AD6ABEE4-B911-4F13-B30A-FF1E9EBD841B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7734,7 +7734,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAFFA20B-EB8C-436D-B707-C66D14054640}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F81E9067-6AB5-4DEE-81A0-D4AD573DDF59}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8997,17 +8997,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A95BBB50-1740-47DB-BEAA-665C65048CF3}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{47D35AD1-C52D-4B58-B622-D6E65B526A5E}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{7D4E4397-4691-44EE-B48C-132CFE72F98D}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{8C60E633-54C6-4E84-85E8-3EB92FF5A3FB}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{9FBFA174-AF51-4A55-8832-3F0697A8511E}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{982E2F84-EFF1-4F94-A182-72E90F7B68CF}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9FC345CA-8EA1-492E-8D62-25B678A26B53}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F3962B74-EC37-4EA4-B707-A63EEFB8F5EB}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{C81C5466-8F2B-4F2A-84AA-E01402066F68}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{CC80E3B8-A22C-419B-A03C-0955234DAD69}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2E105FD9-8EDC-4583-8636-F0F78441A5E3}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{63674DB3-1AD7-4267-BF41-CEF6C86AC5B2}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5A720CE7-87F0-4A7B-BF34-538695A9ED18}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{B5B14771-7292-456B-86EA-D931E1C30172}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{AF872D73-ABBD-4BC9-8E29-624A44ABD41A}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{081295E0-1872-4316-8E37-498EE398C2A0}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{DC54D902-C443-4493-AE2A-446740D6B1DA}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C87FD164-C48B-4A01-BE29-85A77FB8B124}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{BB301676-F266-4CE0-942B-9156E58F0E97}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{F0611794-EF51-44F0-8C35-4A3AC357BB2D}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{E1DB9200-73B7-4239-A9F6-97C7820A61BC}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{DE1732A2-54E8-43BC-89D7-416E7F624F6F}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9020,7 +9020,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D059AEF0-1B98-4793-88F6-F688E91D7454}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D1C8B18-012D-47FD-9F4B-A6FFDDB57D6E}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10277,17 +10277,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B10B5C3E-3FAA-44B5-877D-B1BCE2BBAC4B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{57DC74F8-61AE-488F-A36C-F5CF46383546}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{FB1E6C8D-7AEA-41FE-A03C-B835EA86110B}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{EB017D45-6BB8-4617-A2CE-6878EA1854BA}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{10BBD623-40C6-42CF-8DB2-B2660B20142B}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{2A228C28-6297-4123-8913-079475A4A811}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E53ABB65-8DC1-4A37-9468-A5EDA5FB7612}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{33C1153A-780D-4C5C-A1A1-6B1374C44FE7}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{70CF09EE-350B-4931-9C72-49856EFE6B5B}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{C78F84E7-F9FA-4DCB-ACDC-BEA5069DBD88}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1CDEF8B1-3569-4712-8B0D-BEE7BF35E49B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{182E35E5-36B9-4684-B946-B19F285892BE}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{03744E9D-68F7-4E57-A493-771BB16A0A27}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{D08E104C-5351-430C-B345-FAD402515677}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{9A3AF479-6D97-4088-9D8E-B0A0FEF2567D}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{DFE1A727-0682-4632-A2B6-C3E1A8616737}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{465CED1E-6284-4222-9814-0A104B1AA8C7}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{143A3002-2025-478E-80F2-1DF45B410529}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0E3E65FF-A19C-445B-A649-6C0A4AB5BDEA}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{319AFAE1-FBD6-4361-A942-A170C946630C}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{3D79F1DE-99FB-460D-BCC2-EAE0D88B9497}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0A7B869D-3B22-460C-BD56-9495EB1899ED}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10300,7 +10300,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B1FB9EC-4FBC-43E0-ABE4-7D2ED81FBE72}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC81F97E-4EFE-40E9-9DB8-66C39C54FA36}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11557,17 +11557,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7C2F50BE-DC9D-409D-AF87-AFEA99083707}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8B3ED04D-8F32-4BD1-AE4E-21C27BAD8288}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{C3A8D8EC-AEDE-40F9-A9ED-4DD074FB3E74}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{3C5A767A-E2C7-4E2F-AC7E-E3AE76DC3E28}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{DB1140A2-C55F-48DC-BB5A-DCFC5D47A09A}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{4835AEE9-0FDF-4D6B-9FB4-9021B94A6532}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4E291EAA-63D2-43B4-A076-CB4DE50AAA97}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{464BC3E4-9063-48B9-9BA1-CEB22645E080}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{045D7B02-A39C-488F-BA8A-C9D2A90AB578}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{D0109874-A97F-420D-9A45-94C7F9CF4DC3}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2BEEF866-9A85-4AA9-B863-CFC16F02E154}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1110567B-971B-451B-A15A-129E4BB534D5}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E993C89C-E090-41AB-A7EC-187571E8AFD7}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{8F50B428-6AAA-4977-B7D2-2800F71044B7}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{912F932D-F4F2-4FC6-BE4F-C01B6B89699D}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{24626A19-9A1B-4AC5-A645-23650264CC4D}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{7AFE9C8E-D76C-4F40-8291-735E057AC751}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{038E98A4-7117-4614-B8BD-1F1B2BA17E6E}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A397EE74-7D75-4B48-8B7F-D404C0ACE2AE}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{1AC0EBA0-A3DA-4893-A6FE-E3795BC1D4D5}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{907D2869-E745-40BD-A3AC-BD3C4B5C161C}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CC0A9A3F-1AC4-42FD-840E-78DD48637C4B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11580,7 +11580,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C484C9BC-864B-4CD4-9296-1419D566CB4E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D229777A-77A9-48DB-8DB8-B787A05E82A0}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12839,17 +12839,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0F89466A-D7DF-4DDF-A54C-4646DE4F2174}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DA1FF6E8-9006-44DB-9EDE-FB858B870E93}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{57D14445-A79C-43D2-9E3E-883EC82225CA}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{57759F4C-A3C7-4BB3-BCCC-770585325852}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2AD11695-0239-4BEC-B10D-B990DEE25A1D}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{8F7938CC-1E7A-475D-8D2C-D3C9D0684F13}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{92C2EC11-EFF4-4E36-8F95-69BE2299B0AB}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9B3A6747-0F2C-4BC6-8013-78D781539C4D}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{701D29F1-A6FC-409B-BD39-916A00FBCFB8}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{7470FCC3-BC7D-4DA5-AE5E-5ADD50EA3986}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{23F130AA-D552-4652-8705-2984694D0031}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{89B8BB56-92EB-4CA2-A0C6-C7307A0C2259}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B320104D-4875-404C-AA2A-A16EC98CBDA1}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{25F1D010-5BC3-49A4-95B9-884CBC2C1A73}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{188B371B-8A36-4465-880A-D6AF439AAF87}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{7263F2F0-DF97-4ABF-B880-485C96E36EF8}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{CDACA3E6-00D9-4E4A-A10E-B23D167A234C}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{41EEFFC6-F2A1-492B-A667-7F075CFEAD42}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E53DB059-1660-4984-90C3-19DDE97A4008}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{5D6445DE-6D6A-45F8-984E-F7B837CB7316}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{0D17900C-B432-4318-81FA-D7682B9FFAB1}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6DCFDB7A-69A2-4772-B21A-0EE9CCF7773E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12862,7 +12862,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CC98184-AC89-4524-A5C5-A8E7D3F4E7FB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C9E1D0B-52B4-4EBA-A4FA-973B6BEA9FFB}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14119,17 +14119,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{199C5701-E06A-4270-8D60-518812EE1962}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{FAE4679C-CA67-4C58-97B9-17A95EE8C9C2}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{B0EDED08-7484-4C3B-83DD-25CB7808C9D8}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{0CB52003-91DB-439A-BE28-EF1D65CD4E55}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{23A51574-51A8-4BCA-8274-671F32B5AE98}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F9C8D03C-0392-49B7-A758-597C5F58387B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{532FA352-CF94-4C8C-AE48-A151CA2699FA}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{88997D87-3631-4971-AC6C-928F1E2B75E6}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{FF07DFE1-745C-4F19-8692-22077E3776D5}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{23AA3844-2E09-4DAA-ABC6-BBF13D3A19BF}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{939BBCC7-C8EF-467F-BFF0-9CCE4C6C15F8}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E77CAE83-49E3-4B7A-947D-1942E939E747}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{19F65624-8F48-4373-9128-33322AF805CB}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{1100F7C5-B194-4AFE-8487-7ACCE5E89CB6}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{908103A0-A13B-4381-9864-EE3DBF29C699}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8985B90B-2B07-468F-BFE3-02F6BDD80932}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{94D7C5AD-9A87-409E-9630-02566049FCAE}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{FE4DDB6E-A146-49CF-B372-93E3DBE31629}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1313D03C-A991-476E-A601-C60A12607BBB}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{58E86591-672F-4BC2-B418-27118AD5F069}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{685309FC-2C8B-4D10-942E-D92AD7DA8775}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{63EEAACA-935E-4737-94A4-9B1FAB55F9CD}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14142,7 +14142,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F00BC1A-0830-49D9-A6CF-26C7130F8DCD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF26EE3-4C5A-44D6-81AD-A2174EE3746F}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -15395,17 +15395,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{652730CD-1477-43DB-B9D4-119DF9C010B9}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{35BDDC65-DDED-4CB2-A798-705EFEA419DC}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{5C810F07-3CA5-4B1D-B423-AFC91A8207DB}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{13338E6A-9BAC-44D8-9022-542D4E219A2D}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B49C4578-93F8-4E74-8002-862E280AC343}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{036D5E4C-BE2B-4538-898F-1D7B9CD6EEF0}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2DB19BE2-FD6D-4A61-97A6-C939010EE1B8}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{BD44228D-755F-4C6E-A3C7-75317FBF5959}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{88828B02-F042-4EF4-BB84-BEF0F75AB972}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{68BBDAC7-F672-4D31-B795-D3607C4C75A8}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9E69FBEC-2DFA-4C87-A8D2-DECF34E60EC3}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8C5A69C6-1217-43F8-A7EA-1DECC52F7C59}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{781DBE72-C91D-4B91-B5A0-99BB5A8D3B20}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{5ED97E5C-2DC8-4104-BC92-E79061F20861}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{76740DE6-3E17-4D38-8AAF-4E8B1808B0BD}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1DBD24BB-DB43-4059-AF9C-A288BFD08B1B}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{63D25099-9733-4C35-9916-F37EF41A4BA0}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BEBC8595-6100-45D2-BECF-A4E285E52525}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{53EC2277-4959-4E65-9485-B51A47FFFC2C}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{D2425A97-3CE9-41FD-96AF-71220879C1D6}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{7704C164-7E71-4D1A-A8BF-C8FFF3B94337}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{88A13DA9-D157-419C-A37E-60BB3827F03F}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15418,7 +15418,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24E30081-DC4A-4263-94FF-85CA15DE7AFE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6858CF9B-2FB6-4306-80BF-F78CE42E199E}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -16671,17 +16671,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1B722109-86AD-4A1B-8D05-D5C482EAD765}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{34774793-2CB3-4BF7-BB14-F21751DAE800}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{1C2E17E8-F03E-46DE-90AD-8D5A71F1805F}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{37EF55D1-6AA8-44F4-85B2-6D91666AE3E0}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{283CA322-FF29-4BF7-9DEF-78CC98D6D321}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{03AE1285-9901-4F42-87D9-B07AA8C87465}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F4BF89D7-8703-4541-8ADD-529538ADDEFC}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4F51E6A3-5999-4608-ACAA-34E504FB6814}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{C7A1A163-4347-46C9-B466-32AB230F8A49}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{DCB66350-450A-4573-AC39-14A3576B7949}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{420EACBA-337E-4DDF-8141-A372925F0DDC}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A6CCEFC3-9D67-495E-BAB1-56A4D736CAB0}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{CF2B88F7-32C0-49C4-BB08-CC630F334A5C}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{A4FF8045-008E-4FD1-A82A-ABFFC76A08C1}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{59F387B5-5A6A-450D-A36C-681A3068BE62}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5B0CDF51-00A8-478F-94F2-D97046E2E6DF}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C4586B41-9C17-4EE0-ACFC-4BF29BC85D05}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{CD39DD0A-51F3-4EC4-B544-0037516D0D2D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C3EAC7D2-D6CE-40E7-A01B-0268811038B5}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{D6DFF432-9968-4198-B03B-CE0218E5C0A3}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{4915FF54-3125-4DC5-ACD5-FA050B649AA9}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E8FC3251-9509-4868-A948-A6EC1AF5340B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
